--- a/Output/FilteredWines.xlsx
+++ b/Output/FilteredWines.xlsx
@@ -69,7 +69,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>wine</t>
+          <t>winename</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
